--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>823620.4353512846</v>
+        <v>748962.6282803494</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361503.1115786749</v>
+        <v>270834.3645689704</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7672905.573453774</v>
+        <v>7672905.573453773</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="3">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.2287745170028</v>
+        <v>169.9088723636406</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,23 +895,23 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>36.84842792080795</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>105.0448050850801</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>89.20720739599011</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,67 +1378,67 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>243.2386572690346</v>
+      </c>
+      <c r="X11" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="F11" t="n">
+      <c r="Y11" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="G11" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="H11" t="n">
-        <v>243.2386572690346</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>5.320117042029713</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>69.31585159621662</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.46550985000072</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>28.69723130130874</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>189.8931039215388</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2785039334788</v>
+        <v>192.853907397691</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.2049319796805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,22 +1688,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8944188046378</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>49.12525803078927</v>
+        <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.27434132826716</v>
+        <v>41.62133543603644</v>
       </c>
       <c r="S15" t="n">
-        <v>163.3413660663108</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>131.0102864828578</v>
       </c>
       <c r="G16" t="n">
-        <v>114.5257962770018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>158.8796654153678</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>144.1278231270811</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>38.04673128670552</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>81.59119981643197</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>65.23699284296801</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>175.3360952969163</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>248.5495323785455</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,25 +2244,25 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>15.18239726227538</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>373.0698181292132</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>11.7568533983403</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2520,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>89.83938363460548</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>68.190293743636</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>195.0001439781022</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>49.53754361740557</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>12.30193035304956</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>7.634490799661804</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>275.4805812731079</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.01526169712584</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>52.50084918926082</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2994,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>347.105653695029</v>
+        <v>283.3173445899924</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I33" t="n">
         <v>61.42221998250818</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>129.0246247964033</v>
+        <v>131.8179123113441</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>187.5777956236143</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>302.2028583029317</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3398,7 +3398,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T36" t="n">
-        <v>196.889762398448</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U36" t="n">
         <v>225.8879277888686</v>
@@ -3435,19 +3435,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>134.6751203255734</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>211.2066909830021</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>319.2581146456077</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>78.31629253725373</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>196.4756515461384</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>69.0708624534348</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>93.76239265371795</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I42" t="n">
         <v>61.42221998250818</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>266.6210949690525</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>33.18009054482217</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>184.5331443810477</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,7 +4073,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I45" t="n">
         <v>61.42221998250819</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>155.4526127311935</v>
+        <v>3.888834254466539</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>627.9339654430905</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>453.4809361619635</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,46 +4415,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="Y3" t="n">
-        <v>796.1493024631586</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4506,10 +4506,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.5017773736551</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>56.5017773736551</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>56.5017773736551</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>56.5017773736551</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>56.5017773736551</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V6" t="n">
-        <v>432.4774131586771</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W6" t="n">
-        <v>432.4774131586771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>432.4774131586771</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>224.7171143937231</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4746,7 +4746,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
         <v>19.28114311021272</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X8" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y8" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="U8" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="W8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
         <v>19.28114311021272</v>
@@ -4892,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>857.951291788333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>857.951291788333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>629.7276735247221</v>
+        <v>873.9488652116563</v>
       </c>
       <c r="V9" t="n">
-        <v>629.7276735247221</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="W9" t="n">
-        <v>386.2788968806221</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X9" t="n">
-        <v>386.2788968806221</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y9" t="n">
-        <v>178.5185981156682</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C11" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D11" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E11" t="n">
-        <v>825.6800813726992</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F11" t="n">
-        <v>546.7341079359765</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G11" t="n">
-        <v>267.7881344992537</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
         <v>22.09252109618844</v>
@@ -5050,13 +5050,13 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173958</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5080,13 +5080,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X11" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="Y11" t="n">
-        <v>1104.626054809422</v>
+        <v>301.0384945329112</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>266.5615620906656</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="C12" t="n">
-        <v>92.10853280953856</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="D12" t="n">
-        <v>92.10853280953856</v>
+        <v>381.6441218856155</v>
       </c>
       <c r="E12" t="n">
-        <v>92.10853280953856</v>
+        <v>222.40666688016</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I12" t="n">
         <v>22.09252109618844</v>
@@ -5129,13 +5129,13 @@
         <v>411.954469746149</v>
       </c>
       <c r="M12" t="n">
-        <v>658.9885207281711</v>
+        <v>685.3494183114809</v>
       </c>
       <c r="N12" t="n">
-        <v>658.9885207281711</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121334</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P12" t="n">
         <v>1104.626054809422</v>
@@ -5153,19 +5153,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>1104.626054809422</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V12" t="n">
-        <v>1104.626054809422</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W12" t="n">
-        <v>850.3886980812204</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X12" t="n">
-        <v>642.5371978756875</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="Y12" t="n">
-        <v>434.7768991107336</v>
+        <v>387.0179774836253</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031359</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="C13" t="n">
-        <v>198.9927170031359</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="D13" t="n">
-        <v>198.9927170031359</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="E13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>35.69404619719927</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
         <v>22.09252109618844</v>
@@ -5241,10 +5241,10 @@
         <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031359</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031359</v>
+        <v>170.0056146785816</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.24161755721944</v>
+        <v>791.1123847601673</v>
       </c>
       <c r="C14" t="n">
-        <v>38.24161755721944</v>
+        <v>791.1123847601673</v>
       </c>
       <c r="D14" t="n">
-        <v>38.24161755721944</v>
+        <v>791.1123847601673</v>
       </c>
       <c r="E14" t="n">
-        <v>38.24161755721944</v>
+        <v>791.1123847601673</v>
       </c>
       <c r="F14" t="n">
-        <v>38.24161755721944</v>
+        <v>791.1123847601673</v>
       </c>
       <c r="G14" t="n">
-        <v>38.24161755721944</v>
+        <v>372.4625106837394</v>
       </c>
       <c r="H14" t="n">
-        <v>38.24161755721944</v>
+        <v>38.2416175572193</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721944</v>
+        <v>38.2416175572193</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827246</v>
+        <v>96.93923871827167</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977719</v>
+        <v>305.6565612977704</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480083</v>
+        <v>616.8654835480057</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640746</v>
+        <v>979.7519185640707</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938975</v>
+        <v>1333.87823793897</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653885</v>
+        <v>1623.08204165388</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250553</v>
+        <v>1832.236414250547</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860972</v>
+        <v>1912.080877860965</v>
       </c>
       <c r="R14" t="n">
-        <v>1912.080877860972</v>
+        <v>1912.080877860965</v>
       </c>
       <c r="S14" t="n">
-        <v>1720.26966177861</v>
+        <v>1912.080877860965</v>
       </c>
       <c r="T14" t="n">
-        <v>1720.26966177861</v>
+        <v>1690.442957029152</v>
       </c>
       <c r="U14" t="n">
-        <v>1466.452991138732</v>
+        <v>1495.641030364818</v>
       </c>
       <c r="V14" t="n">
-        <v>1135.390103795161</v>
+        <v>1164.578143021247</v>
       </c>
       <c r="W14" t="n">
-        <v>782.6214485250473</v>
+        <v>1164.578143021247</v>
       </c>
       <c r="X14" t="n">
-        <v>409.1556902639674</v>
+        <v>791.1123847601673</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.24161755721944</v>
+        <v>791.1123847601673</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>372.6748390004628</v>
+        <v>776.3890488346439</v>
       </c>
       <c r="C15" t="n">
-        <v>372.6748390004628</v>
+        <v>601.9360195535169</v>
       </c>
       <c r="D15" t="n">
-        <v>372.6748390004628</v>
+        <v>453.0016098922657</v>
       </c>
       <c r="E15" t="n">
-        <v>372.6748390004628</v>
+        <v>293.7641548868102</v>
       </c>
       <c r="F15" t="n">
-        <v>226.1402810273478</v>
+        <v>147.2295969136951</v>
       </c>
       <c r="G15" t="n">
-        <v>87.86309031559244</v>
+        <v>147.2295969136951</v>
       </c>
       <c r="H15" t="n">
-        <v>38.24161755721944</v>
+        <v>38.2416175572193</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721944</v>
+        <v>38.2416175572193</v>
       </c>
       <c r="J15" t="n">
-        <v>79.508138918778</v>
+        <v>79.50813891877758</v>
       </c>
       <c r="K15" t="n">
-        <v>79.508138918778</v>
+        <v>276.6600398753076</v>
       </c>
       <c r="L15" t="n">
-        <v>406.0075960973861</v>
+        <v>603.1594970539149</v>
       </c>
       <c r="M15" t="n">
-        <v>838.996284280631</v>
+        <v>1036.148185237159</v>
       </c>
       <c r="N15" t="n">
-        <v>1299.151908029491</v>
+        <v>1163.851773243548</v>
       </c>
       <c r="O15" t="n">
-        <v>1644.536891948539</v>
+        <v>1518.388592024563</v>
       </c>
       <c r="P15" t="n">
-        <v>1912.080877860972</v>
+        <v>1785.932577936995</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860972</v>
+        <v>1912.080877860965</v>
       </c>
       <c r="R15" t="n">
-        <v>1839.076492680904</v>
+        <v>1870.039124895272</v>
       </c>
       <c r="S15" t="n">
-        <v>1674.085213826045</v>
+        <v>1870.039124895272</v>
       </c>
       <c r="T15" t="n">
-        <v>1674.085213826045</v>
+        <v>1870.039124895272</v>
       </c>
       <c r="U15" t="n">
-        <v>1445.891439950962</v>
+        <v>1641.845351020189</v>
       </c>
       <c r="V15" t="n">
-        <v>1210.739331719219</v>
+        <v>1406.693242788446</v>
       </c>
       <c r="W15" t="n">
-        <v>956.5019749910175</v>
+        <v>1152.455886060245</v>
       </c>
       <c r="X15" t="n">
-        <v>748.6504747854847</v>
+        <v>944.6043858547118</v>
       </c>
       <c r="Y15" t="n">
-        <v>540.8901760205308</v>
+        <v>944.6043858547118</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>459.9924103041395</v>
+        <v>170.5752402671766</v>
       </c>
       <c r="C16" t="n">
-        <v>459.9924103041395</v>
+        <v>170.5752402671766</v>
       </c>
       <c r="D16" t="n">
-        <v>459.9924103041395</v>
+        <v>170.5752402671766</v>
       </c>
       <c r="E16" t="n">
-        <v>459.9924103041395</v>
+        <v>170.5752402671766</v>
       </c>
       <c r="F16" t="n">
-        <v>459.9924103041395</v>
+        <v>38.2416175572193</v>
       </c>
       <c r="G16" t="n">
-        <v>344.3097878021174</v>
+        <v>38.2416175572193</v>
       </c>
       <c r="H16" t="n">
-        <v>183.8252772815438</v>
+        <v>38.2416175572193</v>
       </c>
       <c r="I16" t="n">
-        <v>38.24161755721944</v>
+        <v>38.2416175572193</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721944</v>
+        <v>38.2416175572193</v>
       </c>
       <c r="K16" t="n">
-        <v>59.50088325727423</v>
+        <v>59.5008832572738</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473017</v>
+        <v>142.2318586473009</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519031</v>
+        <v>239.8491955519019</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922422</v>
+        <v>340.5800267922406</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856853</v>
+        <v>417.6049576856834</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041395</v>
+        <v>459.9924103041373</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.9924103041395</v>
+        <v>459.9924103041373</v>
       </c>
       <c r="R16" t="n">
-        <v>459.9924103041395</v>
+        <v>459.9924103041373</v>
       </c>
       <c r="S16" t="n">
-        <v>459.9924103041395</v>
+        <v>459.9924103041373</v>
       </c>
       <c r="T16" t="n">
-        <v>459.9924103041395</v>
+        <v>459.9924103041373</v>
       </c>
       <c r="U16" t="n">
-        <v>459.9924103041395</v>
+        <v>459.9924103041373</v>
       </c>
       <c r="V16" t="n">
-        <v>459.9924103041395</v>
+        <v>459.9924103041373</v>
       </c>
       <c r="W16" t="n">
-        <v>459.9924103041395</v>
+        <v>170.5752402671766</v>
       </c>
       <c r="X16" t="n">
-        <v>459.9924103041395</v>
+        <v>170.5752402671766</v>
       </c>
       <c r="Y16" t="n">
-        <v>459.9924103041395</v>
+        <v>170.5752402671766</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>554.3221432721089</v>
+        <v>1307.111989013772</v>
       </c>
       <c r="C17" t="n">
-        <v>554.3221432721089</v>
+        <v>1307.111989013772</v>
       </c>
       <c r="D17" t="n">
-        <v>554.3221432721089</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>554.3221432721089</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>554.3221432721089</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>136.3583351702957</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5545,22 +5545,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2388.358616186807</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>2057.295728843236</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W17" t="n">
-        <v>1704.527073573122</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X17" t="n">
-        <v>1331.061315312042</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y17" t="n">
-        <v>940.9219833362306</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="18">
@@ -5579,40 +5579,40 @@
         <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>438.9553738610022</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C19" t="n">
-        <v>438.9553738610022</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D19" t="n">
-        <v>288.8387344486664</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
-        <v>288.8387344486664</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>288.8387344486664</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>119.8389341869988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5703,22 +5703,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610022</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W19" t="n">
-        <v>438.9553738610022</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X19" t="n">
-        <v>438.9553738610022</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y19" t="n">
-        <v>438.9553738610022</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1208.982837814967</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.982837814967</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082162</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036444</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036444</v>
@@ -5755,7 +5755,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224075</v>
@@ -5782,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2520.04192405164</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2266.280138689731</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V20" t="n">
-        <v>1935.217251346161</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="W20" t="n">
-        <v>1582.448596076046</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X20" t="n">
-        <v>1208.982837814967</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y20" t="n">
-        <v>1208.982837814967</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="21">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
         <v>53.94298182036444</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1297.230130518035</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C23" t="n">
-        <v>1297.230130518035</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D23" t="n">
-        <v>1297.230130518035</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E23" t="n">
-        <v>911.4418779197904</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F23" t="n">
-        <v>911.4418779197904</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224075</v>
@@ -6013,13 +6013,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U23" t="n">
         <v>2388.358616186807</v>
@@ -6028,13 +6028,13 @@
         <v>2057.295728843236</v>
       </c>
       <c r="W23" t="n">
-        <v>2057.295728843236</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X23" t="n">
-        <v>1683.829970582156</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y23" t="n">
-        <v>1683.829970582156</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>393.6767897220517</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="C25" t="n">
-        <v>393.6767897220517</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="D25" t="n">
-        <v>393.6767897220517</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E25" t="n">
-        <v>393.6767897220517</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F25" t="n">
-        <v>393.6767897220517</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6168,31 +6168,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>607.965212903889</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>393.6767897220517</v>
+        <v>659.2498996169029</v>
       </c>
       <c r="U25" t="n">
-        <v>393.6767897220517</v>
+        <v>659.2498996169029</v>
       </c>
       <c r="V25" t="n">
-        <v>393.6767897220517</v>
+        <v>659.2498996169029</v>
       </c>
       <c r="W25" t="n">
-        <v>393.6767897220517</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="X25" t="n">
-        <v>393.6767897220517</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="Y25" t="n">
-        <v>393.6767897220517</v>
+        <v>369.8327295799423</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>984.6750962183012</v>
+        <v>1834.613306652564</v>
       </c>
       <c r="C26" t="n">
-        <v>615.7125792778895</v>
+        <v>1465.650789712153</v>
       </c>
       <c r="D26" t="n">
-        <v>257.446880671139</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E26" t="n">
-        <v>257.446880671139</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F26" t="n">
-        <v>257.446880671139</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>257.446880671139</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036444</v>
@@ -6229,7 +6229,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224075</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2465.942913862885</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2465.942913862885</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V26" t="n">
-        <v>2134.880026519314</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W26" t="n">
-        <v>2134.880026519314</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="X26" t="n">
-        <v>1761.414268258235</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="Y26" t="n">
-        <v>1371.274936282423</v>
+        <v>1834.613306652564</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036444</v>
@@ -6329,25 +6329,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>507.3364050629041</v>
+        <v>538.7689125078492</v>
       </c>
       <c r="C28" t="n">
-        <v>507.3364050629041</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="D28" t="n">
-        <v>507.3364050629041</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E28" t="n">
-        <v>507.3364050629041</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F28" t="n">
-        <v>360.4464575649937</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036444</v>
@@ -6426,10 +6426,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>720.417377338089</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.3364050629041</v>
+        <v>720.417377338089</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>565.6746564320254</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>565.6746564320254</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D29" t="n">
-        <v>207.4089578252748</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="E29" t="n">
-        <v>207.4089578252748</v>
+        <v>1161.155908118965</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4089578252748</v>
+        <v>750.1700033293573</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>332.2061952275442</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6490,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2618.345796374661</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2399.711129346724</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2399.711129346724</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2068.648242003153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1715.879586733039</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1342.413828471959</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>952.2744964961471</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6539,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6566,25 +6566,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632152</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632152</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632152</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632152</v>
+        <v>412.3028537806169</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632152</v>
+        <v>243.3030535189494</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632152</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2519.585513306028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2305.297090124191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2077.988902792792</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632152</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1254.177966138804</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C32" t="n">
-        <v>885.2154491983922</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="D32" t="n">
-        <v>534.603677789272</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E32" t="n">
-        <v>534.603677789272</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>1640.777806202926</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>1640.777806202926</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>1640.777806202926</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>597.8010803716834</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="U34" t="n">
-        <v>308.6274700262513</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="V34" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>833.8914035503838</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C35" t="n">
-        <v>464.928886609972</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="D35" t="n">
-        <v>464.928886609972</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036444</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548715</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V35" t="n">
-        <v>2336.864989121511</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W35" t="n">
-        <v>1984.096333851397</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X35" t="n">
-        <v>1610.630575590317</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y35" t="n">
-        <v>1220.491243614505</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7034,16 +7034,16 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
         <v>2289.884200196743</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2667.732171871844</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C37" t="n">
-        <v>2667.732171871844</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D37" t="n">
-        <v>2667.732171871844</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E37" t="n">
-        <v>2667.732171871844</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F37" t="n">
-        <v>2531.696696795507</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G37" t="n">
-        <v>2362.69689653384</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2068.619613065018</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2667.732171871844</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>2667.732171871844</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>2667.732171871844</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X37" t="n">
-        <v>2667.732171871844</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y37" t="n">
-        <v>2667.732171871844</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1584.314837422907</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="C38" t="n">
-        <v>1215.352320482495</v>
+        <v>1096.232786613808</v>
       </c>
       <c r="D38" t="n">
-        <v>857.0866218757444</v>
+        <v>1096.232786613808</v>
       </c>
       <c r="E38" t="n">
-        <v>857.0866218757444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>857.0866218757444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748108</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X38" t="n">
-        <v>1970.914677487028</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y38" t="n">
-        <v>1970.914677487028</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="39">
@@ -7235,10 +7235,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
         <v>359.3385232961342</v>
@@ -7247,7 +7247,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7271,7 +7271,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>438.7118141694736</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C40" t="n">
-        <v>438.7118141694736</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D40" t="n">
-        <v>359.6044479702274</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E40" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F40" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036445</v>
@@ -7368,16 +7368,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>529.6687301194257</v>
       </c>
       <c r="W40" t="n">
-        <v>438.7118141694736</v>
+        <v>529.6687301194257</v>
       </c>
       <c r="X40" t="n">
-        <v>438.7118141694736</v>
+        <v>529.6687301194257</v>
       </c>
       <c r="Y40" t="n">
-        <v>438.7118141694736</v>
+        <v>529.6687301194257</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2090.6186503862</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>1721.656133445788</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D41" t="n">
-        <v>1363.390434839037</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E41" t="n">
-        <v>977.6021822407931</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>566.6162774511856</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>148.6524693493725</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>148.6524693493725</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2090.6186503862</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2090.6186503862</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>2090.6186503862</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7502,31 +7502,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7590,31 +7590,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2251.981069572903</v>
+        <v>953.907173362084</v>
       </c>
       <c r="C44" t="n">
-        <v>1883.018552632492</v>
+        <v>953.907173362084</v>
       </c>
       <c r="D44" t="n">
-        <v>1524.752854025741</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E44" t="n">
-        <v>1138.964601427497</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F44" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G44" t="n">
         <v>534.603677789272</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548715</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548715</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548715</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X44" t="n">
-        <v>2642.120401548715</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y44" t="n">
-        <v>2251.981069572903</v>
+        <v>953.907173362084</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7727,49 +7727,49 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632152</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632152</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632152</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632152</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U46" t="n">
-        <v>2407.97548067279</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V46" t="n">
-        <v>2250.95263953017</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W46" t="n">
-        <v>2250.95263953017</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632152</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632152</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8075,10 +8075,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>391.6633783483032</v>
+        <v>418.2905476243738</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>285.664765532482</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>65.32190271305282</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>260.3352353221101</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.65476256012167</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747075</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747075</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747075</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,10 +22549,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22594,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="3">
@@ -22625,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39.45392126030154</v>
+        <v>35.77382341366379</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22877,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>100.4950892424027</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22986,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>66.63836601875768</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>94.79428962526623</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
         <v>205.0481221176458</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>106.0023114483784</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>142.124948522609</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>75.75336079716726</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>140.0857793320302</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J13" t="n">
         <v>88.89425643449839</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>197.0124240877284</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4633753356636</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>330.8786841952548</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463313</v>
+        <v>178.1163791463315</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492374</v>
+        <v>97.14353343492408</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>189.8931039215389</v>
       </c>
       <c r="T14" t="n">
-        <v>219.4215416234949</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>58.42459653578777</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.03300667637313</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8944188046378</v>
       </c>
       <c r="H15" t="n">
-        <v>58.77284153212173</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493645</v>
+        <v>73.93425515493655</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>30.65300589223089</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.3413660663109</v>
       </c>
       <c r="T15" t="n">
         <v>198.35454715303</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>14.41076154007348</v>
       </c>
       <c r="G16" t="n">
-        <v>53.08867410382105</v>
+        <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>158.8796654153679</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>144.1278231270812</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781613</v>
+        <v>66.7399953978163</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802091</v>
+        <v>54.63455058802111</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191053</v>
+        <v>160.3641786191054</v>
       </c>
       <c r="S16" t="n">
         <v>217.4550733994452</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>316.6363103339775</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>242.3315729479252</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23785,13 +23785,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>90.93389599882714</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23943,16 +23943,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>135.9689721019666</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24022,22 +24022,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>41.11222506074154</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>79.20272609158945</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,25 +24132,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>130.2386507606559</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>40.71435189158177</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>337.4841153190727</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24375,19 +24375,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>56.82580834555237</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>156.8448117144483</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>159.6828976425807</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.3852291469516</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>155.0078719060014</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>218.0751645893754</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>48.44219149124928</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>96.4004511118457</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>103.6700396525343</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>7.577387925653909</v>
+        <v>71.36569703069051</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25125,16 +25125,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>96.01048066168096</v>
+        <v>93.21719314674019</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>167.1052459970686</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>25.5494001672032</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25323,19 +25323,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>10.74592769735787</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>170.7236790892597</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>94.5260553751873</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>70.29918048095863</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25608,10 +25608,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>55.66199177768962</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>296.2020293175727</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>58.1689235911433</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,19 +25684,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25803,7 +25803,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>61.53161905815483</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>19.6607792729252</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>321.5029510758608</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>222.3429013606637</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26070,25 +26070,25 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>96.68503059263455</v>
+        <v>248.2488090693615</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448633.8158345976</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>478390.949385258</v>
+        <v>478390.9493852581</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631681.1569856947</v>
+        <v>631681.1569856935</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425456</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>141745.4664845207</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
-        <v>187164.7872550206</v>
+        <v>187164.7872550202</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
@@ -26349,13 +26349,13 @@
         <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26377,10 +26377,10 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.892168933</v>
+        <v>195194.8921689314</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328023</v>
+        <v>185152.0893328038</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138676</v>
+        <v>49441.87186138632</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112638</v>
+        <v>47231.86264112678</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>206.5374179011836</v>
       </c>
       <c r="F4" t="n">
-        <v>361.7127405802785</v>
+        <v>361.7127405802772</v>
       </c>
       <c r="G4" t="n">
         <v>513.1084990597035</v>
@@ -26481,7 +26481,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221579</v>
+        <v>33615.28060221566</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3698.305232052546</v>
+        <v>-8519.705387987889</v>
       </c>
       <c r="C6" t="n">
-        <v>84467.73676360029</v>
+        <v>72249.72614355982</v>
       </c>
       <c r="D6" t="n">
-        <v>84467.73676360029</v>
+        <v>72249.72614355979</v>
       </c>
       <c r="E6" t="n">
-        <v>85356.26842060374</v>
+        <v>73689.31582927927</v>
       </c>
       <c r="F6" t="n">
-        <v>-42007.09825670843</v>
+        <v>-50835.34329987548</v>
       </c>
       <c r="G6" t="n">
-        <v>-3574.587882665306</v>
+        <v>-9643.001628486025</v>
       </c>
       <c r="H6" t="n">
-        <v>181577.501450137</v>
+        <v>175509.0877043178</v>
       </c>
       <c r="I6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043178</v>
       </c>
       <c r="J6" t="n">
-        <v>118517.5588510307</v>
+        <v>112449.1451052115</v>
       </c>
       <c r="K6" t="n">
-        <v>181577.501450137</v>
+        <v>175509.0877043177</v>
       </c>
       <c r="L6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043177</v>
       </c>
       <c r="M6" t="n">
-        <v>172819.9184549233</v>
+        <v>166751.5047091041</v>
       </c>
       <c r="N6" t="n">
-        <v>132135.6295887502</v>
+        <v>126067.2158429314</v>
       </c>
       <c r="O6" t="n">
-        <v>134345.6388090106</v>
+        <v>128277.225063191</v>
       </c>
       <c r="P6" t="n">
-        <v>181577.5014501368</v>
+        <v>175509.0877043177</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.791342143533</v>
+        <v>208.7913421435316</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26801,7 +26801,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.020219465243</v>
+        <v>478.0202194652413</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26810,19 +26810,19 @@
         <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26971,10 +26971,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244076</v>
+        <v>173.7700814244063</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735537</v>
+        <v>168.952322073555</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628875</v>
+        <v>201.8637057628858</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893126</v>
+        <v>196.2670532893143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628875</v>
+        <v>201.8637057628858</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893126</v>
+        <v>196.2670532893143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628875</v>
+        <v>201.8637057628858</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893126</v>
+        <v>196.2670532893143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31855,13 +31855,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>14.38448725650263</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164375</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>4.676990252263569</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714887</v>
+        <v>0.8393621794714832</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512386</v>
+        <v>8.596117920512329</v>
       </c>
       <c r="I14" t="n">
-        <v>32.3595104240746</v>
+        <v>32.35951042407439</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991833</v>
+        <v>71.23981577991786</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369465</v>
+        <v>106.7700168369458</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369471</v>
+        <v>132.4576471369462</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961232</v>
+        <v>147.3846542961222</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885465</v>
+        <v>149.7694920885455</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164269</v>
+        <v>141.423084416426</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107245</v>
+        <v>120.7013306107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840179</v>
+        <v>90.6416725584012</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622595</v>
+        <v>52.7255845062256</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470657</v>
+        <v>19.12696566470644</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636444</v>
+        <v>3.67430794063642</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771908</v>
+        <v>0.06714897435771865</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728823</v>
+        <v>0.4490983585728793</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585469</v>
+        <v>4.337344673585441</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647862</v>
+        <v>15.46237769647852</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692307</v>
+        <v>42.42994623692279</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130617</v>
+        <v>72.5195362613057</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995849</v>
+        <v>97.51146596995787</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682254</v>
+        <v>113.7912814682247</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921638</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>97.60764629806641</v>
+        <v>106.8519239364166</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099188</v>
+        <v>85.75808919099133</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589986</v>
+        <v>57.32701152589948</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437598</v>
+        <v>27.8834928243758</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037526996</v>
+        <v>8.341805037526941</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791573</v>
+        <v>1.810181541791561</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295279</v>
+        <v>0.0295459446429526</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358791</v>
+        <v>0.3765089776358767</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071727</v>
+        <v>3.347507092071706</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017717</v>
+        <v>11.32265180017709</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885665</v>
+        <v>26.61918471885648</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351394</v>
+        <v>43.74349758351366</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779243</v>
+        <v>55.97661654779207</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886784</v>
+        <v>59.01949364886745</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495234</v>
+        <v>57.61614200495196</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438773</v>
+        <v>53.21783258438738</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061576</v>
+        <v>45.53704944061546</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367348</v>
+        <v>31.52749266367327</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806416</v>
+        <v>16.92921275806405</v>
       </c>
       <c r="S16" t="n">
-        <v>6.56152463752709</v>
+        <v>6.561524637527048</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171483</v>
+        <v>1.608720177171473</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559343</v>
+        <v>0.0205368533255933</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034982</v>
@@ -32572,7 +32572,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034982</v>
@@ -32788,7 +32788,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32809,7 +32809,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034982</v>
@@ -33046,7 +33046,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33283,7 +33283,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034982</v>
@@ -33499,7 +33499,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33511,16 +33511,16 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578334</v>
       </c>
       <c r="P33" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>50.44659727034982</v>
@@ -33754,10 +33754,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33991,10 +33991,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>50.44659727034982</v>
@@ -34222,16 +34222,16 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>50.44659727034982</v>
@@ -34462,13 +34462,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>149.8971812516334</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>50.44659727034981</v>
@@ -34783,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34795,10 +34795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>249.529344426285</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>154.3230534491487</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530581</v>
+        <v>59.29052642530534</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631307</v>
+        <v>210.82557836313</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174103</v>
+        <v>314.3524467174094</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616829</v>
+        <v>366.551954561682</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039398</v>
+        <v>357.7033529039388</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574855</v>
+        <v>292.1250542574846</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269376</v>
+        <v>211.2670430269368</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385699</v>
+        <v>80.65097334385639</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.68335491066521</v>
+        <v>41.68335491066493</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>199.1433342995253</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935435</v>
+        <v>329.7974314935428</v>
       </c>
       <c r="M15" t="n">
-        <v>437.3623112962071</v>
+        <v>437.3623112962063</v>
       </c>
       <c r="N15" t="n">
-        <v>464.803660352384</v>
+        <v>128.9935232387768</v>
       </c>
       <c r="O15" t="n">
-        <v>348.8737211303515</v>
+        <v>358.1179987687017</v>
       </c>
       <c r="P15" t="n">
-        <v>270.2464504165988</v>
+        <v>270.2464504165982</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>127.4225251757271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763109</v>
+        <v>21.47400575763081</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810857</v>
+        <v>83.56664180810822</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070842</v>
+        <v>98.60337061070804</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841809</v>
+        <v>101.7483143841806</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842741</v>
+        <v>77.80296049842705</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550925</v>
+        <v>42.81560870550895</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901185</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>401.1632560839184</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>748962.6282803494</v>
+        <v>815280.2434998594</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>270834.3645689704</v>
+        <v>250952.2984868055</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11783336.69528064</v>
+        <v>11783336.69528065</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>241.0142888776591</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>169.9088723636406</v>
+        <v>29.83623182992856</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>63.88882306452221</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1040,7 +1040,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>202.2946864288972</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>89.20720739599011</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,26 +1369,26 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>268.0607811825788</v>
+      </c>
+      <c r="H11" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>243.2386572690346</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>5.320117042029713</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>95.51060308355433</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X13" t="n">
-        <v>28.69723130130874</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4633753356636</v>
+        <v>318.2877184522498</v>
       </c>
       <c r="H14" t="n">
-        <v>330.8786841952548</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.4215416234949</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>192.853907397691</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>32.71836327475197</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8944188046378</v>
       </c>
       <c r="H15" t="n">
         <v>107.898099562911</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.62133543603644</v>
+        <v>72.27434132826724</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9118361363319</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>131.0102864828578</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>160.3641786191054</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>111.7480581774131</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>38.04673128670552</v>
+        <v>316.9357601192097</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>89.06613335611762</v>
+        <v>219.187013517325</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>248.5495323785455</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>169.3575929423584</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>79.32920716089167</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>236.0502377560821</v>
       </c>
       <c r="W23" t="n">
-        <v>11.7568533983403</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>49.75696784121567</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>68.190293743636</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>195.0001439781022</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>165.2554015140032</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>7.634490799661804</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>275.4805812731079</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>140.7375091981418</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>121.2699779972374</v>
       </c>
       <c r="H31" t="n">
-        <v>52.50084918926082</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>283.3173445899924</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>283.8898270650862</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>131.8179123113441</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>187.5777956236143</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>57.28111013508705</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>208.0481001000691</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>211.2066909830021</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>199.8692462101354</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>41.65592056208443</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>196.4756515461384</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>69.0708624534348</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>296.7650756691942</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>33.18009054482217</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>294.5894175383385</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>3.888834254466539</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
         <v>262.7299197543128</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C3" t="n">
         <v>20.03527576299844</v>
@@ -4418,16 +4418,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V3" t="n">
-        <v>399.5118995681682</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W3" t="n">
-        <v>399.5118995681682</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X3" t="n">
-        <v>191.6603993626354</v>
+        <v>224.6259129531442</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
         <v>19.28114311021272</v>
@@ -4512,28 +4512,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4655,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,19 +4673,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>726.1056462496665</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U6" t="n">
-        <v>497.8820279860555</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V6" t="n">
-        <v>262.7299197543128</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
         <v>19.28114311021272</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F8" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G8" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C8" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D8" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F8" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4834,19 +4834,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
         <v>506.1786963984129</v>
@@ -4895,7 +4895,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>873.9488652116563</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>638.7967569799137</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>395.3479803358136</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4964801302808</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4995,10 +4995,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.09252109618844</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="C11" t="n">
-        <v>22.09252109618844</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="D11" t="n">
-        <v>22.09252109618844</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="E11" t="n">
-        <v>22.09252109618844</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="F11" t="n">
-        <v>22.09252109618844</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H11" t="n">
         <v>22.09252109618844</v>
@@ -5044,19 +5044,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5074,19 +5074,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="V11" t="n">
-        <v>1104.626054809422</v>
+        <v>850.7529338106226</v>
       </c>
       <c r="W11" t="n">
-        <v>858.9304414063566</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="X11" t="n">
-        <v>579.9844679696339</v>
+        <v>571.8069603738999</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.0384945329112</v>
+        <v>571.8069603738999</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>387.0179774836253</v>
+        <v>518.7912929804074</v>
       </c>
       <c r="C12" t="n">
-        <v>387.0179774836253</v>
+        <v>518.7912929804074</v>
       </c>
       <c r="D12" t="n">
-        <v>381.6441218856155</v>
+        <v>369.8568833191562</v>
       </c>
       <c r="E12" t="n">
-        <v>222.40666688016</v>
+        <v>369.8568833191562</v>
       </c>
       <c r="F12" t="n">
-        <v>222.40666688016</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="G12" t="n">
-        <v>222.40666688016</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H12" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I12" t="n">
         <v>22.09252109618844</v>
@@ -5144,28 +5144,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="U12" t="n">
-        <v>876.4074424435696</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="V12" t="n">
-        <v>641.2553342118269</v>
+        <v>773.028649708609</v>
       </c>
       <c r="W12" t="n">
-        <v>387.0179774836253</v>
+        <v>518.7912929804074</v>
       </c>
       <c r="X12" t="n">
-        <v>387.0179774836253</v>
+        <v>518.7912929804074</v>
       </c>
       <c r="Y12" t="n">
-        <v>387.0179774836253</v>
+        <v>518.7912929804074</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>170.0056146785816</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>170.0056146785816</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>170.0056146785816</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
         <v>22.09252109618844</v>
@@ -5238,13 +5238,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>170.0056146785816</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>170.0056146785816</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>791.1123847601673</v>
+        <v>1525.481037796846</v>
       </c>
       <c r="C14" t="n">
-        <v>791.1123847601673</v>
+        <v>1156.518520856435</v>
       </c>
       <c r="D14" t="n">
-        <v>791.1123847601673</v>
+        <v>1156.518520856435</v>
       </c>
       <c r="E14" t="n">
-        <v>791.1123847601673</v>
+        <v>770.7302682581903</v>
       </c>
       <c r="F14" t="n">
-        <v>791.1123847601673</v>
+        <v>359.7443634685828</v>
       </c>
       <c r="G14" t="n">
-        <v>372.4625106837394</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H14" t="n">
-        <v>38.2416175572193</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I14" t="n">
-        <v>38.2416175572193</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827167</v>
+        <v>96.93923871827189</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977704</v>
+        <v>305.6565612977709</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480057</v>
+        <v>616.8654835480066</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640707</v>
+        <v>979.7519185640722</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.87823793897</v>
+        <v>1333.878237938972</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.08204165388</v>
+        <v>1623.082041653882</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250547</v>
+        <v>1832.23641425055</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860965</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R14" t="n">
-        <v>1912.080877860965</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="S14" t="n">
-        <v>1912.080877860965</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="T14" t="n">
-        <v>1690.442957029152</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="U14" t="n">
-        <v>1495.641030364818</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="V14" t="n">
-        <v>1164.578143021247</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="W14" t="n">
-        <v>1164.578143021247</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="X14" t="n">
-        <v>791.1123847601673</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="Y14" t="n">
-        <v>791.1123847601673</v>
+        <v>1912.080877860968</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>776.3890488346439</v>
+        <v>773.262062057951</v>
       </c>
       <c r="C15" t="n">
-        <v>601.9360195535169</v>
+        <v>740.2132102652722</v>
       </c>
       <c r="D15" t="n">
-        <v>453.0016098922657</v>
+        <v>591.2788006040209</v>
       </c>
       <c r="E15" t="n">
-        <v>293.7641548868102</v>
+        <v>432.0413455985655</v>
       </c>
       <c r="F15" t="n">
-        <v>147.2295969136951</v>
+        <v>285.5067876254504</v>
       </c>
       <c r="G15" t="n">
         <v>147.2295969136951</v>
       </c>
       <c r="H15" t="n">
-        <v>38.2416175572193</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I15" t="n">
-        <v>38.2416175572193</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J15" t="n">
-        <v>79.50813891877758</v>
+        <v>79.50813891877777</v>
       </c>
       <c r="K15" t="n">
-        <v>276.6600398753076</v>
+        <v>276.660039875308</v>
       </c>
       <c r="L15" t="n">
-        <v>603.1594970539149</v>
+        <v>603.1594970539157</v>
       </c>
       <c r="M15" t="n">
-        <v>1036.148185237159</v>
+        <v>923.4948165836175</v>
       </c>
       <c r="N15" t="n">
-        <v>1163.851773243548</v>
+        <v>1268.015472221236</v>
       </c>
       <c r="O15" t="n">
-        <v>1518.388592024563</v>
+        <v>1622.552291002251</v>
       </c>
       <c r="P15" t="n">
-        <v>1785.932577936995</v>
+        <v>1805.195768615601</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860965</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R15" t="n">
-        <v>1870.039124895272</v>
+        <v>1839.0764926809</v>
       </c>
       <c r="S15" t="n">
-        <v>1870.039124895272</v>
+        <v>1839.0764926809</v>
       </c>
       <c r="T15" t="n">
-        <v>1870.039124895272</v>
+        <v>1638.718364243496</v>
       </c>
       <c r="U15" t="n">
-        <v>1641.845351020189</v>
+        <v>1638.718364243496</v>
       </c>
       <c r="V15" t="n">
-        <v>1406.693242788446</v>
+        <v>1403.566256011753</v>
       </c>
       <c r="W15" t="n">
-        <v>1152.455886060245</v>
+        <v>1149.328899283552</v>
       </c>
       <c r="X15" t="n">
-        <v>944.6043858547118</v>
+        <v>941.4773990780191</v>
       </c>
       <c r="Y15" t="n">
-        <v>944.6043858547118</v>
+        <v>941.4773990780191</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>170.5752402671766</v>
+        <v>185.1315650551297</v>
       </c>
       <c r="C16" t="n">
-        <v>170.5752402671766</v>
+        <v>185.1315650551297</v>
       </c>
       <c r="D16" t="n">
-        <v>170.5752402671766</v>
+        <v>185.1315650551297</v>
       </c>
       <c r="E16" t="n">
-        <v>170.5752402671766</v>
+        <v>185.1315650551297</v>
       </c>
       <c r="F16" t="n">
-        <v>38.2416175572193</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="G16" t="n">
-        <v>38.2416175572193</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H16" t="n">
-        <v>38.2416175572193</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I16" t="n">
-        <v>38.2416175572193</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J16" t="n">
-        <v>38.2416175572193</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="K16" t="n">
-        <v>59.5008832572738</v>
+        <v>59.500883257274</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473009</v>
+        <v>142.2318586473013</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519019</v>
+        <v>239.8491955519024</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922406</v>
+        <v>340.5800267922414</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856834</v>
+        <v>417.6049576856843</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041373</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.9924103041373</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="R16" t="n">
-        <v>459.9924103041373</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="S16" t="n">
-        <v>459.9924103041373</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="T16" t="n">
-        <v>459.9924103041373</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="U16" t="n">
-        <v>459.9924103041373</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="V16" t="n">
-        <v>459.9924103041373</v>
+        <v>185.1315650551297</v>
       </c>
       <c r="W16" t="n">
-        <v>170.5752402671766</v>
+        <v>185.1315650551297</v>
       </c>
       <c r="X16" t="n">
-        <v>170.5752402671766</v>
+        <v>185.1315650551297</v>
       </c>
       <c r="Y16" t="n">
-        <v>170.5752402671766</v>
+        <v>185.1315650551297</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1307.111989013772</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C17" t="n">
-        <v>1307.111989013772</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D17" t="n">
         <v>1268.68094731003</v>
@@ -5515,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2070.717079250664</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X17" t="n">
-        <v>1697.251320989584</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y17" t="n">
-        <v>1307.111989013772</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>348.7460229006679</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C19" t="n">
-        <v>348.7460229006679</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D19" t="n">
-        <v>348.7460229006679</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E19" t="n">
-        <v>200.8329293182748</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T19" t="n">
-        <v>638.1631929376285</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="U19" t="n">
-        <v>638.1631929376285</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="V19" t="n">
-        <v>638.1631929376285</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="W19" t="n">
-        <v>348.7460229006679</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X19" t="n">
-        <v>348.7460229006679</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y19" t="n">
-        <v>348.7460229006679</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C20" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D20" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861747</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5782,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.752638628376</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1973.692504912674</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1973.692504912674</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="X20" t="n">
-        <v>1600.226746651594</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="Y20" t="n">
-        <v>1210.087414675782</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="21">
@@ -5807,73 +5807,73 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>291.8218666715633</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1268.680947310029</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.680947310029</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.680947310029</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2057.295728843236</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="W23" t="n">
-        <v>2045.420119349963</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X23" t="n">
-        <v>2045.420119349963</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y23" t="n">
-        <v>1655.280787374151</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>369.8327295799423</v>
+        <v>104.2025452963399</v>
       </c>
       <c r="C25" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>659.2498996169029</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U25" t="n">
-        <v>659.2498996169029</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V25" t="n">
-        <v>659.2498996169029</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W25" t="n">
-        <v>369.8327295799423</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X25" t="n">
-        <v>369.8327295799423</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y25" t="n">
-        <v>369.8327295799423</v>
+        <v>285.8510101265796</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1834.613306652564</v>
+        <v>1408.083041312478</v>
       </c>
       <c r="C26" t="n">
-        <v>1465.650789712153</v>
+        <v>1408.083041312478</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.680947310029</v>
+        <v>1049.817342705728</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117851</v>
+        <v>1049.817342705728</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>638.8314379161202</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>220.8676298143071</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036444</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6259,19 +6259,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.752638628376</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.752638628376</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W26" t="n">
-        <v>2224.752638628376</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X26" t="n">
-        <v>2224.752638628376</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y26" t="n">
-        <v>1834.613306652564</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>538.7689125078492</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C28" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D28" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036444</v>
@@ -6414,22 +6414,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X28" t="n">
-        <v>720.417377338089</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y28" t="n">
-        <v>720.417377338089</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C29" t="n">
-        <v>1546.944160717209</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D29" t="n">
-        <v>1546.944160717209</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E29" t="n">
-        <v>1161.155908118965</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F29" t="n">
-        <v>750.1700033293573</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>332.2061952275442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6493,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2336.355323790141</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2336.355323790141</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1983.586668520027</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C31" t="n">
-        <v>559.1928012785273</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D31" t="n">
-        <v>559.1928012785273</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="E31" t="n">
-        <v>559.1928012785273</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="F31" t="n">
-        <v>412.3028537806169</v>
+        <v>176.4379090903012</v>
       </c>
       <c r="G31" t="n">
-        <v>243.3030535189494</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6657,16 +6657,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1882.054803223514</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C32" t="n">
-        <v>1882.054803223514</v>
+        <v>830.1724885289281</v>
       </c>
       <c r="D32" t="n">
-        <v>1595.875667274027</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287636</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="Y32" t="n">
-        <v>2268.654643287636</v>
+        <v>1199.13500546934</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6794,10 +6794,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>380.6911546495019</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V34" t="n">
-        <v>380.6911546495019</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W34" t="n">
-        <v>380.6911546495019</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X34" t="n">
-        <v>380.6911546495019</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y34" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1611.619444146874</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C35" t="n">
-        <v>1611.619444146874</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D35" t="n">
-        <v>1422.14692331494</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6940,16 +6940,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2388.358616186807</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>2388.358616186807</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y35" t="n">
-        <v>1998.219284210995</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7031,28 +7031,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C37" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D37" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F37" t="n">
-        <v>149.5382038240415</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036445</v>
@@ -7119,28 +7119,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610022</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W37" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X37" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y37" t="n">
-        <v>149.5382038240415</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1465.195303554219</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C38" t="n">
-        <v>1096.232786613808</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D38" t="n">
-        <v>1096.232786613808</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
@@ -7180,7 +7180,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.72394915887</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="V38" t="n">
-        <v>1838.661061815299</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W38" t="n">
-        <v>1838.661061815299</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X38" t="n">
-        <v>1465.195303554219</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y38" t="n">
-        <v>1465.195303554219</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7271,25 +7271,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>348.0202652891861</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="C40" t="n">
-        <v>348.0202652891861</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="D40" t="n">
-        <v>348.0202652891861</v>
+        <v>96.01966925681336</v>
       </c>
       <c r="E40" t="n">
-        <v>348.0202652891861</v>
+        <v>96.01966925681336</v>
       </c>
       <c r="F40" t="n">
-        <v>348.0202652891861</v>
+        <v>96.01966925681336</v>
       </c>
       <c r="G40" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>529.6687301194257</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W40" t="n">
-        <v>529.6687301194257</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X40" t="n">
-        <v>529.6687301194257</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y40" t="n">
-        <v>529.6687301194257</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="C41" t="n">
-        <v>1422.14692331494</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="D41" t="n">
-        <v>1422.14692331494</v>
+        <v>1182.655397407941</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>1182.655397407941</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>771.6694926183334</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>353.7056845165203</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1540.921096014691</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7508,7 +7508,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V43" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>953.907173362084</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C44" t="n">
-        <v>953.907173362084</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D44" t="n">
-        <v>920.3919303875161</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E44" t="n">
-        <v>534.603677789272</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F44" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U44" t="n">
-        <v>2048.575150942546</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V44" t="n">
-        <v>1717.512263598976</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W44" t="n">
-        <v>1717.512263598976</v>
+        <v>1583.553172936862</v>
       </c>
       <c r="X44" t="n">
-        <v>1344.046505337896</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y44" t="n">
-        <v>953.907173362084</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036444</v>
@@ -7830,28 +7830,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>352.67413830922</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U46" t="n">
-        <v>352.67413830922</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>348.7460229006679</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>260.3352353221101</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.3570488013777</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.3570488013773</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>194.3570488013777</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>113.6687527430239</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22679,13 +22679,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>35.77382341366379</v>
+        <v>175.8464639473758</v>
       </c>
     </row>
     <row r="4">
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22792,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>329.5048015845142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>166.9258651286752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
@@ -22913,10 +22913,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>136.2759056302994</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22928,7 +22928,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,16 +23029,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23074,10 +23074,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>49.05096647893927</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23156,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>136.7341746849847</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23235,13 +23235,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1619485273195</v>
+        <v>147.1011673447406</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I11" t="n">
         <v>205.0481221176458</v>
@@ -23314,19 +23314,19 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>106.0023114483784</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X11" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23342,22 +23342,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>142.124948522609</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>49.55860930982955</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>170.2839726213331</v>
@@ -23393,7 +23393,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X13" t="n">
-        <v>197.0124240877284</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>96.17565688341375</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463315</v>
+        <v>178.1163791463314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492408</v>
+        <v>97.14353343492391</v>
       </c>
       <c r="S14" t="n">
         <v>189.8931039215389</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
-        <v>58.42459653578777</v>
+        <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>139.9901357135638</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8944188046378</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493655</v>
+        <v>73.93425515493651</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>30.65300589223089</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>163.3413660663109</v>
       </c>
       <c r="T15" t="n">
-        <v>198.35454715303</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>14.41076154007348</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.6144703808229</v>
@@ -23673,10 +23673,10 @@
         <v>158.8796654153679</v>
       </c>
       <c r="I16" t="n">
-        <v>144.1278231270812</v>
+        <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>66.7399953978163</v>
+        <v>66.73999539781622</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802111</v>
+        <v>54.63455058802101</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191054</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>217.4550733994452</v>
@@ -23712,10 +23712,10 @@
         <v>286.2984925031653</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>140.3895851464149</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>316.6363103339775</v>
+        <v>37.74728150147325</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,13 +23907,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>135.9689721019666</v>
+        <v>5.848091940759247</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>79.20272609158945</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>179.8833757750546</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>87.98059509815924</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
@@ -24183,10 +24183,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>91.70202071405282</v>
       </c>
       <c r="W23" t="n">
-        <v>337.4841153190727</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>117.4898532574122</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24414,10 +24414,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>156.8448117144483</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>159.6828976425807</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>158.6673712503539</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,19 +24612,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24654,22 +24654,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>218.0751645893754</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>48.44219149124928</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>110.4866583101475</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,16 +24852,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>46.03982426181348</v>
       </c>
       <c r="H31" t="n">
-        <v>103.6700396525343</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24897,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>71.36569703069051</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24970,19 +24970,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>85.84127361338284</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>93.21719314674019</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>63.13204062090065</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>167.1052459970686</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>324.6492599371747</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25323,19 +25323,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>61.53161905815483</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>44.08954322375894</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>170.7236790892597</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>51.3549212981539</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>125.6538816969665</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,13 +25602,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>55.66199177768962</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>296.2020293175727</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>27.15769709516292</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25803,13 +25803,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>61.53161905815483</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>56.01837628787183</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,22 +25870,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>321.5029510758608</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>54.65155117907454</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26070,22 +26070,22 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>248.2488090693615</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>478390.9493852581</v>
+        <v>478390.949385258</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631681.1569856935</v>
+        <v>631681.1569856937</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="16">
@@ -26319,25 +26319,25 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="E2" t="n">
-        <v>141745.4664845208</v>
+        <v>141745.4664845207</v>
       </c>
       <c r="F2" t="n">
-        <v>187164.7872550202</v>
+        <v>187164.7872550203</v>
       </c>
       <c r="G2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="H2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
@@ -26377,10 +26377,10 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689314</v>
+        <v>195194.8921689321</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328038</v>
+        <v>185152.0893328032</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>8757.582995213677</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138632</v>
+        <v>49441.87186138649</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112678</v>
+        <v>47231.86264112661</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>206.5374179011836</v>
       </c>
       <c r="F4" t="n">
-        <v>361.7127405802772</v>
+        <v>361.7127405802779</v>
       </c>
       <c r="G4" t="n">
         <v>513.1084990597035</v>
@@ -26481,7 +26481,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221566</v>
+        <v>33615.28060221572</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8519.705387987889</v>
+        <v>2476.50417004847</v>
       </c>
       <c r="C6" t="n">
-        <v>72249.72614355982</v>
+        <v>83245.93570159625</v>
       </c>
       <c r="D6" t="n">
-        <v>72249.72614355979</v>
+        <v>83245.93570159627</v>
       </c>
       <c r="E6" t="n">
-        <v>73689.31582927927</v>
+        <v>84189.57316147129</v>
       </c>
       <c r="F6" t="n">
-        <v>-50835.34329987548</v>
+        <v>-42889.9227610246</v>
       </c>
       <c r="G6" t="n">
-        <v>-9643.001628486025</v>
+        <v>-4181.429257248071</v>
       </c>
       <c r="H6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.660075555</v>
       </c>
       <c r="I6" t="n">
-        <v>175509.0877043178</v>
+        <v>180970.660075555</v>
       </c>
       <c r="J6" t="n">
-        <v>112449.1451052115</v>
+        <v>117910.7174764489</v>
       </c>
       <c r="K6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="L6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="M6" t="n">
-        <v>166751.5047091041</v>
+        <v>172213.0770803413</v>
       </c>
       <c r="N6" t="n">
-        <v>126067.2158429314</v>
+        <v>131528.7882141686</v>
       </c>
       <c r="O6" t="n">
-        <v>128277.225063191</v>
+        <v>133738.7974344284</v>
       </c>
       <c r="P6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435316</v>
+        <v>208.7913421435323</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26801,34 +26801,34 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652413</v>
+        <v>478.020219465242</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26971,10 +26971,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244063</v>
+        <v>173.7700814244069</v>
       </c>
       <c r="G3" t="n">
-        <v>168.952322073555</v>
+        <v>168.9523220735544</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628858</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893143</v>
+        <v>196.2670532893136</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469654</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628858</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893143</v>
+        <v>196.2670532893136</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628858</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893143</v>
+        <v>196.2670532893136</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714832</v>
+        <v>0.8393621794714858</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512329</v>
+        <v>8.596117920512357</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407439</v>
+        <v>32.35951042407449</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991786</v>
+        <v>71.23981577991809</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369458</v>
+        <v>106.7700168369461</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369462</v>
+        <v>132.4576471369466</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961222</v>
+        <v>147.3846542961226</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885455</v>
+        <v>149.769492088546</v>
       </c>
       <c r="O14" t="n">
-        <v>141.423084416426</v>
+        <v>141.4230844164264</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107237</v>
+        <v>120.7013306107241</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.6416725584012</v>
+        <v>90.64167255840148</v>
       </c>
       <c r="R14" t="n">
-        <v>52.7255845062256</v>
+        <v>52.72558450622577</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470644</v>
+        <v>19.1269656647065</v>
       </c>
       <c r="T14" t="n">
-        <v>3.67430794063642</v>
+        <v>3.674307940636431</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771865</v>
+        <v>0.06714897435771885</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728793</v>
+        <v>0.4490983585728807</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585441</v>
+        <v>4.337344673585454</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647852</v>
+        <v>15.46237769647857</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692279</v>
+        <v>42.42994623692292</v>
       </c>
       <c r="K15" t="n">
-        <v>72.5195362613057</v>
+        <v>72.51953626130593</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995787</v>
+        <v>97.51146596995817</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682247</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364166</v>
+        <v>106.8519239364169</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099133</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589948</v>
+        <v>37.86924316367416</v>
       </c>
       <c r="R15" t="n">
-        <v>27.8834928243758</v>
+        <v>27.88349282437589</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037526941</v>
+        <v>8.341805037526967</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791561</v>
+        <v>1.810181541791567</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0295459446429526</v>
+        <v>0.02954594464295269</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358767</v>
+        <v>0.3765089776358778</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071706</v>
+        <v>3.347507092071716</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017709</v>
+        <v>11.32265180017713</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885648</v>
+        <v>26.61918471885656</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351366</v>
+        <v>43.74349758351379</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779207</v>
+        <v>55.97661654779224</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886745</v>
+        <v>59.01949364886764</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495196</v>
+        <v>57.61614200495214</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438738</v>
+        <v>53.21783258438755</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061546</v>
+        <v>45.5370494406156</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367327</v>
+        <v>31.52749266367337</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806405</v>
+        <v>16.9292127580641</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527048</v>
+        <v>6.561524637527068</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171473</v>
+        <v>1.608720177171477</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0205368533255933</v>
+        <v>0.02053685332559336</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32551,7 +32551,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32572,7 +32572,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034982</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33514,7 +33514,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>177.5954266578334</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
         <v>155.1528646479577</v>
@@ -33523,16 +33523,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33751,25 +33751,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P36" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O9" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="O9" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530534</v>
+        <v>59.29052642530557</v>
       </c>
       <c r="K14" t="n">
-        <v>210.82557836313</v>
+        <v>210.8255783631303</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174094</v>
+        <v>314.3524467174098</v>
       </c>
       <c r="M14" t="n">
-        <v>366.551954561682</v>
+        <v>366.5519545616824</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039388</v>
+        <v>357.7033529039393</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574846</v>
+        <v>292.1250542574851</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269368</v>
+        <v>211.2670430269372</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385639</v>
+        <v>80.65097334385668</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.68335491066493</v>
+        <v>41.68335491066506</v>
       </c>
       <c r="K15" t="n">
-        <v>199.1433342995253</v>
+        <v>199.1433342995255</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935428</v>
+        <v>329.7974314935432</v>
       </c>
       <c r="M15" t="n">
-        <v>437.3623112962063</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>128.9935232387768</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>358.1179987687017</v>
+        <v>358.117998768702</v>
       </c>
       <c r="P15" t="n">
-        <v>270.2464504165982</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.4225251757271</v>
+        <v>107.9647568135017</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763081</v>
+        <v>21.47400575763094</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810822</v>
+        <v>83.56664180810839</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070804</v>
+        <v>98.60337061070823</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841806</v>
+        <v>101.7483143841807</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842705</v>
+        <v>77.80296049842723</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550895</v>
+        <v>42.81560870550909</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36688,7 +36688,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>428.8615014901185</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P36" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
